--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59533.30707828835</v>
+        <v>-64247.21803265344</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892735</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11638101.53055037</v>
+        <v>11635741.6129887</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>46.13863276595951</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>133.0569578406548</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102173027</v>
+        <v>133.4004008056255</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.83489387903506</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>193.7921298023269</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>220.1406528706655</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.93167272336891</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>37.31872582931048</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>24.57725165964598</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>137.414469535195</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>246.3451483714792</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>389.5856290372432</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>249.7528576000308</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>131.6846499321099</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>93.60474926612939</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>217.7859874397736</v>
+        <v>184.8120559713562</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.43745394329135</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681697</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1591,7 +1591,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>12.17511602193724</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>110.1379876338154</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1658,10 +1658,10 @@
         <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,10 +1670,10 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.21080750339496</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>44.0773892086863</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>22.22022933644594</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815724</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093882</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227885</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619104</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126115</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841664</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564638</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838893</v>
+        <v>24.17382596574936</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828905</v>
+        <v>52.06849973564948</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.485676643467</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970369</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308063</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.509124908685</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435633</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158944</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431737</v>
+        <v>70.57601873167781</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459978</v>
+        <v>55.72314698196021</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643951</v>
+        <v>41.29686219379994</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931862</v>
+        <v>41.22330424667905</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908588</v>
+        <v>42.97275566644632</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147802</v>
+        <v>53.79159358883845</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805006</v>
+        <v>41.1438457554105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922199</v>
+        <v>18.98356133658243</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367791</v>
+        <v>9.882059701038344</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920523</v>
+        <v>88.00800320656566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407377</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678076</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546736</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754237</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221363</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988126</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.212130050281</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.036628553212</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>871.5604407383573</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>871.5604407383573</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683351</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="L2" t="n">
-        <v>858.7445930764364</v>
+        <v>534.8235384748672</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764364</v>
+        <v>588.4870060424296</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713898</v>
+        <v>1102.089684652116</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606227</v>
+        <v>1542.129285544444</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675966</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102437</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1870.655869043487</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678799</v>
+        <v>1647.155266602904</v>
       </c>
       <c r="U2" t="n">
-        <v>1961.664735117224</v>
+        <v>1391.402537037502</v>
       </c>
       <c r="V2" t="n">
-        <v>1961.664735117224</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="W2" t="n">
-        <v>1961.664735117224</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="X2" t="n">
-        <v>1572.212130050281</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.212130050281</v>
+        <v>1257.00156952169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963692</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719613</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444267</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382921</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653869</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545627</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262024</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714979</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614848</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813756</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492398</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863465</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1171.979781261823</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261823</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373306</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865303</v>
+        <v>216.8551406839423</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865303</v>
+        <v>216.8551406839423</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865303</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865303</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400799</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783439</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V4" t="n">
-        <v>269.6235556316095</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="W4" t="n">
-        <v>269.6235556316095</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="X4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865303</v>
+        <v>374.1810754709693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.29691250637</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="C5" t="n">
-        <v>931.9326166774146</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="D5" t="n">
-        <v>931.9326166774146</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774146</v>
+        <v>871.5604407383573</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>454.6660022683351</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>114.5970879866847</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>607.9173797052135</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>1121.5200583149</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713898</v>
+        <v>1635.122736924586</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606227</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297165</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297165</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297165</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297165</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.282367297165</v>
+        <v>2060.079840116542</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.791658217767</v>
+        <v>2060.079840116542</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E6" t="n">
-        <v>337.3745374278471</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F6" t="n">
-        <v>212.942731310979</v>
+        <v>299.2477350719613</v>
       </c>
       <c r="G6" t="n">
-        <v>92.88291338284338</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444267</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M6" t="n">
-        <v>846.8008913552947</v>
+        <v>638.184314874379</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.64131843037</v>
+        <v>921.5731989359404</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021351</v>
+        <v>1435.175877545627</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816915</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2050.33683109</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1873.353019288908</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1663.28987596755</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>842.0113338974228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633829</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400799</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783439</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>682.2391980888895</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V7" t="n">
-        <v>682.2391980888895</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="W7" t="n">
-        <v>398.908796020067</v>
+        <v>408.6779943362773</v>
       </c>
       <c r="X7" t="n">
-        <v>398.908796020067</v>
+        <v>174.5976721192604</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.908796020067</v>
+        <v>174.5976721192604</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1377.774808715765</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="C8" t="n">
-        <v>1377.774808715765</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="D8" t="n">
-        <v>992.3336799324325</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>992.3336799324325</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4808,13 +4808,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>2113.372891339775</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.774808715765</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.774808715765</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.774808715765</v>
+        <v>1742.373856308063</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="C10" t="n">
-        <v>2100.893135359201</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="D10" t="n">
-        <v>1945.260022261715</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="E10" t="n">
-        <v>1945.260022261715</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="F10" t="n">
-        <v>1787.934087474688</v>
+        <v>1951.406783011508</v>
       </c>
       <c r="G10" t="n">
-        <v>1619.680033574134</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.201482535628</v>
+        <v>1627.674178072448</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.201482535628</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J10" t="n">
         <v>1464.201482535628</v>
@@ -4984,28 +4984,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S10" t="n">
-        <v>2365.64850507718</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="T10" t="n">
-        <v>2365.64850507718</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="U10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="V10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="W10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="X10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="Y10" t="n">
-        <v>2271.098253293211</v>
+        <v>2108.732717798535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.296937795194</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.917711444318</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>734.2728578071801</v>
+        <v>1331.657796418323</v>
       </c>
       <c r="E11" t="n">
-        <v>403.4856080699185</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998632</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998632</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2639.54893209987</v>
+        <v>2919.277540790265</v>
       </c>
       <c r="W11" t="n">
-        <v>2340.346172214352</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="X11" t="n">
-        <v>2022.689842293602</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.995408360397</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>305.4047163160375</v>
+        <v>399.8503184534342</v>
       </c>
       <c r="C13" t="n">
-        <v>305.4047163160375</v>
+        <v>301.4414756656172</v>
       </c>
       <c r="D13" t="n">
-        <v>305.4047163160375</v>
+        <v>217.6046377143258</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160375</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5224,25 +5224,25 @@
         <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>924.9842784840484</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901635</v>
+        <v>713.4501515614199</v>
       </c>
       <c r="X13" t="n">
-        <v>570.1322458983077</v>
+        <v>551.1661044905969</v>
       </c>
       <c r="Y13" t="n">
-        <v>418.8164598611449</v>
+        <v>399.8503184534342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.577864530541</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998632</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X14" t="n">
-        <v>2106.065029543618</v>
+        <v>2124.069481336465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.276335095744</v>
+        <v>1799.37504740326</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.7226219791499</v>
+        <v>485.8030133066248</v>
       </c>
       <c r="C16" t="n">
-        <v>350.313779191333</v>
+        <v>387.3941705188079</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939129</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993092</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840484</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X16" t="n">
-        <v>713.4501515614201</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.1343655242573</v>
+        <v>530.3256286689342</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,16 +6157,16 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
         <v>670.0483496134135</v>
@@ -6233,31 +6233,31 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,7 +6379,7 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
@@ -6388,7 +6388,7 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,10 +6461,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
         <v>1163.368641331942</v>
@@ -6473,25 +6473,25 @@
         <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,13 +6540,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918586</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303042</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401235</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993058</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108093</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803381</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.9731416283544</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234495</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3334.696634253972</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117247</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939824</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380766</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.74722569689</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281935</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131748</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.94610894633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748457</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348361</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179679</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898324</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234495</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220723</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842988</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965131</v>
+        <v>365.6713676929681</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404831</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237461</v>
+        <v>267.6713584245235</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652517</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597504</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407217</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374135</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234495</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234495</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.3901767122868</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>313.5178165860866</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>611.4615154993339</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>906.3032701055265</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1180.660157722218</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1376.562239503597</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873648</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387751</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451826</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501586</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250125</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273625</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400658</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045746</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027437</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012516</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960414</v>
+        <v>435.0968109750514</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343054</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655146</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,16 +7433,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205779</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411557</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462927</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133175</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445266</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862346</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532864</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918815</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161908</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222421</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960418</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343059</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>468.0126189682609</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>203.9305743932449</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920128</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>96.09182324999688</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788095</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381731</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519559</v>
       </c>
       <c r="N5" t="n">
-        <v>463.745906075685</v>
+        <v>667.9090757920128</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,10 +8292,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8304,16 +8304,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>495.3119381825258</v>
+        <v>371.6235108961479</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431176</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,16 +8456,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>359.5215849845346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>709.3350389104421</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372788</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>49.82144136901121</v>
+        <v>82.79537283742866</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>24.48745768136622</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>148.4860905781775</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>215.2734982257355</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.236682090478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>68.20023690097003</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>60.77824023533252</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017272.567963839</v>
+        <v>1016069.472736318</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1017272.567963839</v>
+        <v>1016069.472736318</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912155.8984603899</v>
+        <v>912155.8984603897</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>288531.4849493708</v>
+      </c>
+      <c r="C2" t="n">
         <v>288531.4849493709</v>
       </c>
-      <c r="C2" t="n">
-        <v>288531.4849493711</v>
-      </c>
       <c r="D2" t="n">
-        <v>288531.484949371</v>
+        <v>288531.4849493709</v>
       </c>
       <c r="E2" t="n">
-        <v>254974.4374790409</v>
+        <v>254974.437479041</v>
       </c>
       <c r="F2" t="n">
-        <v>254974.4374790409</v>
+        <v>254974.437479041</v>
       </c>
       <c r="G2" t="n">
         <v>288531.4849493707</v>
@@ -26335,10 +26335,10 @@
         <v>288531.4849493708</v>
       </c>
       <c r="J2" t="n">
+        <v>288531.4849493703</v>
+      </c>
+      <c r="K2" t="n">
         <v>288531.4849493701</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288531.4849493703</v>
       </c>
       <c r="L2" t="n">
         <v>288531.4849493707</v>
@@ -26353,7 +26353,7 @@
         <v>288531.4849493708</v>
       </c>
       <c r="P2" t="n">
-        <v>288531.4849493707</v>
+        <v>288531.4849493708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340545</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401407</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.325536682</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399289</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.2417753972</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081125</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277131</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.988532726</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.988532726</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,10 +26454,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
+        <v>173460.5839839467</v>
+      </c>
+      <c r="P4" t="n">
         <v>173460.5839839468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.0675348171</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.0675348171</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315415</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551969</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171042.6739665217</v>
+        <v>-166691.2281522267</v>
       </c>
       <c r="C6" t="n">
-        <v>11162.27432533431</v>
+        <v>7167.428881827851</v>
       </c>
       <c r="D6" t="n">
-        <v>3993.953303662827</v>
+        <v>-3742.335919729434</v>
       </c>
       <c r="E6" t="n">
-        <v>-36035.81118720873</v>
+        <v>-36245.54273389823</v>
       </c>
       <c r="F6" t="n">
-        <v>76086.75028683586</v>
+        <v>75877.0187401463</v>
       </c>
       <c r="G6" t="n">
-        <v>9475.806113222323</v>
+        <v>9475.806113222192</v>
       </c>
       <c r="H6" t="n">
-        <v>56901.13164990433</v>
+        <v>56901.13164990442</v>
       </c>
       <c r="I6" t="n">
-        <v>56901.13164990442</v>
+        <v>56901.13164990427</v>
       </c>
       <c r="J6" t="n">
-        <v>-156140.7859473818</v>
+        <v>-149624.5007928081</v>
       </c>
       <c r="K6" t="n">
-        <v>50661.36324712095</v>
+        <v>50661.36324712075</v>
       </c>
       <c r="L6" t="n">
-        <v>-4521.2256874999</v>
+        <v>-8570.062897972457</v>
       </c>
       <c r="M6" t="n">
-        <v>14700.30219028145</v>
+        <v>13648.60717909309</v>
       </c>
       <c r="N6" t="n">
         <v>56901.13164990442</v>
       </c>
       <c r="O6" t="n">
-        <v>29133.437607133</v>
+        <v>29133.43760713327</v>
       </c>
       <c r="P6" t="n">
-        <v>56901.13164990448</v>
+        <v>56901.13164990442</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293118</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014446</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.0703022192465</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287392</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506639</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.362224997163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.2816569208525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506639</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.0565695037878</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>205.628783362862</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863157</v>
+        <v>94.41567260242053</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>112.0888716490859</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>37.94738919251978</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>169.1030936114332</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>370.6264062929048</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>97.76330015091067</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>109.0041186694839</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,16 +27828,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>145.1699343053231</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>34.15194967665491</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,19 +27856,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.13986504807883</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>88.93288360348595</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28011,10 +28011,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>69.10327304716625</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>188.9796545743887</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>28.01250026485148</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,20 +28980,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,31 +29296,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>86.65052755599572</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29460,7 +29460,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29472,7 +29472,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431646</v>
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833279</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140892466</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254194</v>
+        <v>76.79385455030382</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727105</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485162</v>
       </c>
       <c r="L37" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733553</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>128.297982108279</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155843</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.01250026485285</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>314.7644492377692</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>54.20552279551758</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>3.704701200684963</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899206</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>73.83216285893577</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="N5" t="n">
-        <v>314.6274147379008</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>409.9398253283591</v>
+        <v>286.2513980419812</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542287</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>209.9577475604382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681028</v>
+        <v>31.46926427500396</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>623.9629260562755</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36756,7 +36756,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36768,7 +36768,7 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122748</v>
       </c>
       <c r="Q28" t="n">
         <v>97.44803848446894</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>557.2643651184967</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993919</v>
+        <v>299.4926067837696</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683159138</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255024</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476693</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097893</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505001</v>
+        <v>197.880890688262</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516616</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565495</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37704,13 +37704,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>316.471293561071</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835522</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133992</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,7 +38184,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500534</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
